--- a/Table1.xlsx
+++ b/Table1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guido\Documents\who-prey-chitons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D93D4E5-99AD-4FD8-93A2-51E8240D2D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66CAC72-356B-4BBA-9FA7-C4F16E67EBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="207">
   <si>
     <t>Animals</t>
   </si>
@@ -33,58 +33,520 @@
     <t>Predators</t>
   </si>
   <si>
+    <t>Snails</t>
+  </si>
+  <si>
+    <t>Amplidrupa clathrata</t>
+  </si>
+  <si>
+    <t>Drupa morum</t>
+  </si>
+  <si>
+    <t>Lirabuccinum dirum</t>
+  </si>
+  <si>
+    <t>Sistrum ricinus</t>
+  </si>
+  <si>
+    <t>Worms</t>
+  </si>
+  <si>
+    <t>Hermodice carunculata</t>
+  </si>
+  <si>
+    <t>Octopuses</t>
+  </si>
+  <si>
+    <t>Octopus spp.</t>
+  </si>
+  <si>
+    <t>Crabs</t>
+  </si>
+  <si>
+    <t>Carcinus maenas</t>
+  </si>
+  <si>
+    <t>Cancer pagurus</t>
+  </si>
+  <si>
+    <t>Eriphia smithii</t>
+  </si>
+  <si>
+    <t>Eriphia verrucosa</t>
+  </si>
+  <si>
+    <t>Hemigrapsus nudus</t>
+  </si>
+  <si>
+    <t>Maja squinado</t>
+  </si>
+  <si>
+    <t>Necora puber</t>
+  </si>
+  <si>
+    <t>Ozius guttatus</t>
+  </si>
+  <si>
+    <t>Pachygrapsus crassipes</t>
+  </si>
+  <si>
+    <t>Pachygrapsus marmoratus</t>
+  </si>
+  <si>
+    <t>Octopus bimaculatus</t>
+  </si>
+  <si>
+    <t>Octopus bimaculoides</t>
+  </si>
+  <si>
+    <t>Octopus insularis</t>
+  </si>
+  <si>
+    <t>Octopus mimus</t>
+  </si>
+  <si>
+    <t>Panulirus argus</t>
+  </si>
+  <si>
+    <t>Lobsters</t>
+  </si>
+  <si>
+    <t>Starfishes</t>
+  </si>
+  <si>
+    <t>Anasterias antarctica</t>
+  </si>
+  <si>
+    <t>Asterias rubens</t>
+  </si>
+  <si>
+    <t>Astrostole scabra</t>
+  </si>
+  <si>
+    <t>Dermasterias imbricata</t>
+  </si>
+  <si>
+    <t>Heliaster helianthus</t>
+  </si>
+  <si>
+    <t>Leptasterias pusilla</t>
+  </si>
+  <si>
+    <t>Orthasterias koehleri</t>
+  </si>
+  <si>
+    <t>Patiria miniata</t>
+  </si>
+  <si>
+    <t>Pisaster ochraceus</t>
+  </si>
+  <si>
+    <t>Stylasterias forreri</t>
+  </si>
+  <si>
+    <t>Fishes</t>
+  </si>
+  <si>
+    <t>Abudefduf taurus</t>
+  </si>
+  <si>
+    <t>Arothron immaculatus</t>
+  </si>
+  <si>
+    <t>Balistes vetula</t>
+  </si>
+  <si>
+    <t>Bodianus rufus</t>
+  </si>
+  <si>
+    <t>Calamus calamus</t>
+  </si>
+  <si>
+    <t>Coris gaimard</t>
+  </si>
+  <si>
+    <t>Diplodus caudimacula</t>
+  </si>
+  <si>
+    <t>Epinephelus adscensionis</t>
+  </si>
+  <si>
+    <t>Haemulon album</t>
+  </si>
+  <si>
+    <t>Halichoeres bivittatus</t>
+  </si>
+  <si>
+    <t>Hippocampus guttulatus</t>
+  </si>
+  <si>
+    <t>Holocentrus rufus</t>
+  </si>
+  <si>
+    <t>Gobioclinus guppyi</t>
+  </si>
+  <si>
+    <t>Lactophrys trigonus</t>
+  </si>
+  <si>
+    <t>Lipophrys pholis</t>
+  </si>
+  <si>
+    <t>Malacanthus plumieri</t>
+  </si>
+  <si>
+    <t>Mulloidichthys martinicus</t>
+  </si>
+  <si>
+    <t>Neoniphon vexillarium</t>
+  </si>
+  <si>
+    <t>Notolabrus tetricus</t>
+  </si>
+  <si>
+    <t>Salaria pavo</t>
+  </si>
+  <si>
+    <t>Sphoeroides spengleri</t>
+  </si>
+  <si>
+    <t>Thalassoma lutescens</t>
+  </si>
+  <si>
+    <t>Diplodus vulgaris</t>
+  </si>
+  <si>
+    <t>Haemulon carbonarium</t>
+  </si>
+  <si>
+    <t>Haemulon flavolineatum</t>
+  </si>
+  <si>
+    <t>Haemulon plumierii</t>
+  </si>
+  <si>
+    <t>Halichoeres garnoti</t>
+  </si>
+  <si>
+    <t>Halichoeres maculipinna</t>
+  </si>
+  <si>
+    <t>Halichoeres poeyi</t>
+  </si>
+  <si>
+    <t>Halichoeres radiatus</t>
+  </si>
+  <si>
+    <t>Lactophrys triqueter</t>
+  </si>
+  <si>
+    <t>Birds</t>
+  </si>
+  <si>
+    <t>Haematopus bachmani</t>
+  </si>
+  <si>
+    <t>Histrionicus histrionicus</t>
+  </si>
+  <si>
+    <t>Larus dominicanus</t>
+  </si>
+  <si>
+    <t>Somateria mollissima</t>
+  </si>
+  <si>
+    <t>Larus glaucescens</t>
+  </si>
+  <si>
+    <t>Mammals</t>
+  </si>
+  <si>
+    <t>Enhydra lutris</t>
+  </si>
+  <si>
+    <t>Larus occidentalis</t>
+  </si>
+  <si>
+    <t>Meyenaster gelatinosus</t>
+  </si>
+  <si>
+    <t>Anisotremus virginicus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chitons </t>
   </si>
   <si>
+    <t xml:space="preserve">No specified </t>
+  </si>
+  <si>
+    <t>Katharina tunicata</t>
+  </si>
+  <si>
+    <t>Tonicella lineata</t>
+  </si>
+  <si>
+    <t>Achantopleura granulata</t>
+  </si>
+  <si>
+    <t>Stenoplax conspicua</t>
+  </si>
+  <si>
+    <t>S. conspicua</t>
+  </si>
+  <si>
+    <t>Callistochiton sp.</t>
+  </si>
+  <si>
+    <t>Chiton tuberculatus</t>
+  </si>
+  <si>
+    <t>Chiton granosus</t>
+  </si>
+  <si>
+    <t>Enoplochiton echinatus</t>
+  </si>
+  <si>
+    <t>Rhyssoplax olivacea</t>
+  </si>
+  <si>
+    <t>Lepidochitona cinerea</t>
+  </si>
+  <si>
+    <t>L. cinerea</t>
+  </si>
+  <si>
+    <t>Acanthopleura gemmata</t>
+  </si>
+  <si>
+    <t>Cyanoplax hartwegii</t>
+  </si>
+  <si>
+    <t>Acanthochitona crinita</t>
+  </si>
+  <si>
+    <t>A. gemmata</t>
+  </si>
+  <si>
+    <t>C. hartwegii</t>
+  </si>
+  <si>
+    <t>Acanthochitona spp.</t>
+  </si>
+  <si>
+    <t>Stenoplax spp.</t>
+  </si>
+  <si>
+    <t>Plaxiphora aurata</t>
+  </si>
+  <si>
+    <t>Tonicia spp.</t>
+  </si>
+  <si>
+    <t>Chiton glaucus</t>
+  </si>
+  <si>
+    <t>Ischnochiton maorianus</t>
+  </si>
+  <si>
+    <t>Onithochiton neglectus</t>
+  </si>
+  <si>
+    <t>T. lineata</t>
+  </si>
+  <si>
+    <t>Chaetopleura hennahi</t>
+  </si>
+  <si>
+    <t>Enoplochiton niger</t>
+  </si>
+  <si>
+    <t>Chiton spp.</t>
+  </si>
+  <si>
+    <t>No specified</t>
+  </si>
+  <si>
+    <t>K. tunicata</t>
+  </si>
+  <si>
+    <t>Mopalia spp.</t>
+  </si>
+  <si>
+    <t>Calloplax janeirensis</t>
+  </si>
+  <si>
+    <t>Acanthochitona fascicularis</t>
+  </si>
+  <si>
+    <t>Callochiton laevis</t>
+  </si>
+  <si>
+    <t>Rhyssoplax corallina</t>
+  </si>
+  <si>
+    <t>Ischnochiton rissoi</t>
+  </si>
+  <si>
+    <t>Lepidopleurus cajetanus</t>
+  </si>
+  <si>
+    <t>Acanthochitona hemphilli</t>
+  </si>
+  <si>
+    <t>Ischnochiton papillosus</t>
+  </si>
+  <si>
+    <t>Acanthochitona pygmaea</t>
+  </si>
+  <si>
+    <t>I. papillosus</t>
+  </si>
+  <si>
+    <t>A. pygmaea</t>
+  </si>
+  <si>
+    <t>Ischnochiton spp.</t>
+  </si>
+  <si>
+    <t>Acanthochitona sp.</t>
+  </si>
+  <si>
+    <t>L. cinearea</t>
+  </si>
+  <si>
+    <t>Choneplax lata</t>
+  </si>
+  <si>
+    <t>C. lata</t>
+  </si>
+  <si>
+    <t>Rhyssoplax diaphora</t>
+  </si>
+  <si>
+    <t>Cryptoplax striata</t>
+  </si>
+  <si>
+    <t>Ischnochiton australis</t>
+  </si>
+  <si>
+    <t>Ischnochiton cariosus</t>
+  </si>
+  <si>
+    <t>Ischnochiton elongatus</t>
+  </si>
+  <si>
+    <t>Ischnochiton lineolatus</t>
+  </si>
+  <si>
+    <t>Notoplax speciosa</t>
+  </si>
+  <si>
+    <t>R. olivacea</t>
+  </si>
+  <si>
+    <t>R. corallina</t>
+  </si>
+  <si>
+    <t>Mopalia muscosa</t>
+  </si>
+  <si>
+    <t>K.tunicata</t>
+  </si>
+  <si>
+    <t>Mopalia sp.</t>
+  </si>
+  <si>
+    <t>M. muscosa</t>
+  </si>
+  <si>
+    <t>Nuttallina californica</t>
+  </si>
+  <si>
+    <t>Boreochiton ruber</t>
+  </si>
+  <si>
+    <t>Stenosemus albus</t>
+  </si>
+  <si>
+    <t>Cryptochiton stelleri</t>
+  </si>
+  <si>
+    <t>Tonicella marmorea</t>
+  </si>
+  <si>
     <t>Method</t>
   </si>
   <si>
+    <t>Gut content</t>
+  </si>
+  <si>
+    <t>Manipulative experiment</t>
+  </si>
+  <si>
+    <t>Manipulative experiment/ Prey remains</t>
+  </si>
+  <si>
+    <t>Prey remains</t>
+  </si>
+  <si>
+    <t>Stable isotopes</t>
+  </si>
+  <si>
+    <t>Manipulative experiment/ Stomach content</t>
+  </si>
+  <si>
+    <t>Stomach content</t>
+  </si>
+  <si>
+    <t>Direct observation (?)</t>
+  </si>
+  <si>
+    <t>Direct observation</t>
+  </si>
+  <si>
+    <t>Metabarcoding</t>
+  </si>
+  <si>
+    <t>Esophagi/Gizzard content; Fecal sample</t>
+  </si>
+  <si>
+    <t>Fecal sample</t>
+  </si>
+  <si>
+    <t>Regurgitation pellets</t>
+  </si>
+  <si>
+    <t>Regurgitation pellets/ Manipulative experiment</t>
+  </si>
+  <si>
     <t>Reference</t>
   </si>
   <si>
-    <t>Snails</t>
-  </si>
-  <si>
-    <t>Amplidrupa clathrata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No specified </t>
-  </si>
-  <si>
-    <t>Gut content</t>
-  </si>
-  <si>
     <t>Taylor (1983)</t>
   </si>
   <si>
-    <t>Drupa morum</t>
-  </si>
-  <si>
-    <t>Lirabuccinum dirum</t>
-  </si>
-  <si>
-    <t>Katharina tunicata</t>
-  </si>
-  <si>
-    <t>Manipulative experiment</t>
-  </si>
-  <si>
     <t>Louda (1979)</t>
   </si>
   <si>
-    <t>Tonicella lineata</t>
-  </si>
-  <si>
-    <t>Sistrum ricinus</t>
-  </si>
-  <si>
-    <t>Worms</t>
-  </si>
-  <si>
-    <t>Hermodice carunculata</t>
-  </si>
-  <si>
-    <t>Rhyssoplax olivácea</t>
+    <t>Wodinsky (1969)</t>
+  </si>
+  <si>
+    <t>Pilson &amp; Taylor (1961); Ambrose (1984)</t>
+  </si>
+  <si>
+    <t>Ambrose (1984)</t>
+  </si>
+  <si>
+    <t>Pilson &amp; Taylor (1961)</t>
+  </si>
+  <si>
+    <t>Dantas et al. (2020)</t>
+  </si>
+  <si>
+    <t>Mather &amp; Nixon (1990)</t>
+  </si>
+  <si>
+    <t>Cortez et al. (1998)</t>
   </si>
   <si>
     <r>
@@ -111,6 +573,102 @@
       </rPr>
       <t xml:space="preserve"> (2018)</t>
     </r>
+  </si>
+  <si>
+    <t>Silva et al. (2010a); Mendonça et al. (2016)</t>
+  </si>
+  <si>
+    <t>Silva et al. (2010a)</t>
+  </si>
+  <si>
+    <t>Chelazzi et al. (1983)</t>
+  </si>
+  <si>
+    <t>Silva et al. (2010b)</t>
+  </si>
+  <si>
+    <t>DeBevoise (1975)</t>
+  </si>
+  <si>
+    <t>Bernárdez et al. (2000)</t>
+  </si>
+  <si>
+    <t>Silva et al. (2009)</t>
+  </si>
+  <si>
+    <t>Cox et al. (1997)</t>
+  </si>
+  <si>
+    <t>Laptikhovsky et al. (2015)</t>
+  </si>
+  <si>
+    <t>Whilde (1985)</t>
+  </si>
+  <si>
+    <t>Town (1980)</t>
+  </si>
+  <si>
+    <t>Mauzey et al. (1968)</t>
+  </si>
+  <si>
+    <t>Tokeshi et al. (1989)</t>
+  </si>
+  <si>
+    <t>Ortiz et al. (2003)</t>
+  </si>
+  <si>
+    <t>Mauzey (1966)</t>
+  </si>
+  <si>
+    <t>Randall (1967)</t>
+  </si>
+  <si>
+    <t>Randall (1967); Reinthal et al. (1984)</t>
+  </si>
+  <si>
+    <t>Shibuno et al. (1994)</t>
+  </si>
+  <si>
+    <t>Pallaoro et al. (2006)</t>
+  </si>
+  <si>
+    <t>Lazic et al. (2021)</t>
+  </si>
+  <si>
+    <t>Mazé et al. (1999)</t>
+  </si>
+  <si>
+    <t>Shepherd &amp; Clarkson (2001)</t>
+  </si>
+  <si>
+    <t>Santic et al. (2007)</t>
+  </si>
+  <si>
+    <t>Gushima et al. (1991)</t>
+  </si>
+  <si>
+    <t>Bergman et al. (2013)</t>
+  </si>
+  <si>
+    <t>Gaines &amp; Fitzner (1987); Rodway &amp; Cooke (2000)</t>
+  </si>
+  <si>
+    <t>Rodway &amp; Cooke (2002)</t>
+  </si>
+  <si>
+    <t>Petracci et al. (2004)</t>
+  </si>
+  <si>
+    <t>Irons et al. (1986)</t>
+  </si>
+  <si>
+    <t>Moore (1975)</t>
+  </si>
+  <si>
+    <t>Kristjansson et al. (2013)</t>
+  </si>
+  <si>
+    <t>Johnstone et al. (2024)</t>
   </si>
 </sst>
 </file>
@@ -443,18 +1001,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -465,112 +1024,1795 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
         <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="s">
+        <v>150</v>
+      </c>
+      <c r="E58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s">
+        <v>112</v>
+      </c>
+      <c r="D72" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D81" t="s">
+        <v>156</v>
+      </c>
+      <c r="E81" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C82" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" t="s">
+        <v>156</v>
+      </c>
+      <c r="E82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" t="s">
+        <v>156</v>
+      </c>
+      <c r="E83" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" t="s">
+        <v>156</v>
+      </c>
+      <c r="E84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" t="s">
+        <v>134</v>
+      </c>
+      <c r="D85" t="s">
+        <v>156</v>
+      </c>
+      <c r="E85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" t="s">
+        <v>135</v>
+      </c>
+      <c r="D86" t="s">
+        <v>156</v>
+      </c>
+      <c r="E86" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" t="s">
+        <v>156</v>
+      </c>
+      <c r="E87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" t="s">
+        <v>156</v>
+      </c>
+      <c r="E88" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" t="s">
+        <v>156</v>
+      </c>
+      <c r="E89" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" t="s">
+        <v>156</v>
+      </c>
+      <c r="E90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" t="s">
+        <v>156</v>
+      </c>
+      <c r="E91" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" t="s">
+        <v>160</v>
+      </c>
+      <c r="E95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" t="s">
+        <v>161</v>
+      </c>
+      <c r="E96" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" t="s">
+        <v>141</v>
+      </c>
+      <c r="D98" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>71</v>
+      </c>
+      <c r="B99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" t="s">
+        <v>142</v>
+      </c>
+      <c r="D99" t="s">
+        <v>163</v>
+      </c>
+      <c r="E99" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" t="s">
+        <v>162</v>
+      </c>
+      <c r="E100" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" t="s">
+        <v>162</v>
+      </c>
+      <c r="E101" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" t="s">
+        <v>162</v>
+      </c>
+      <c r="E102" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" t="s">
+        <v>156</v>
+      </c>
+      <c r="E103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>71</v>
+      </c>
+      <c r="B104" t="s">
+        <v>75</v>
+      </c>
+      <c r="C104" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" t="s">
+        <v>156</v>
+      </c>
+      <c r="E104" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" t="s">
+        <v>156</v>
+      </c>
+      <c r="E105" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" t="s">
+        <v>147</v>
+      </c>
+      <c r="D106" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Table1.xlsx
+++ b/Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guido\Documents\who-prey-chitons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66CAC72-356B-4BBA-9FA7-C4F16E67EBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070BDAAD-3681-46BD-A458-3699E2FE38C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="207">
   <si>
     <t>Animals</t>
   </si>
@@ -575,9 +575,6 @@
     </r>
   </si>
   <si>
-    <t>Silva et al. (2010a); Mendonça et al. (2016)</t>
-  </si>
-  <si>
     <t>Silva et al. (2010a)</t>
   </si>
   <si>
@@ -590,9 +587,6 @@
     <t>DeBevoise (1975)</t>
   </si>
   <si>
-    <t>Bernárdez et al. (2000)</t>
-  </si>
-  <si>
     <t>Silva et al. (2009)</t>
   </si>
   <si>
@@ -635,9 +629,6 @@
     <t>Lazic et al. (2021)</t>
   </si>
   <si>
-    <t>Mazé et al. (1999)</t>
-  </si>
-  <si>
     <t>Shepherd &amp; Clarkson (2001)</t>
   </si>
   <si>
@@ -669,6 +660,15 @@
   </si>
   <si>
     <t>Johnstone et al. (2024)</t>
+  </si>
+  <si>
+    <t>Maze et al. (1999)</t>
+  </si>
+  <si>
+    <t>Bernardez et al. (2000)</t>
+  </si>
+  <si>
+    <t>Silva et al. (2010a); Mendonca et al. (2016)</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,6 +1139,9 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" t="s">
         <v>87</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1316,7 +1319,7 @@
         <v>156</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1333,7 +1336,7 @@
         <v>157</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1350,7 +1353,7 @@
         <v>156</v>
       </c>
       <c r="E20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1367,7 +1370,7 @@
         <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1384,7 +1387,7 @@
         <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1401,7 +1404,7 @@
         <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1418,7 +1421,7 @@
         <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1435,7 +1438,7 @@
         <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1452,7 +1455,7 @@
         <v>156</v>
       </c>
       <c r="E26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1469,7 +1472,7 @@
         <v>150</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1486,7 +1489,7 @@
         <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1503,7 +1506,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1520,7 +1523,7 @@
         <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1537,7 +1540,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1554,7 +1557,7 @@
         <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1571,7 +1574,7 @@
         <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1588,7 +1591,7 @@
         <v>151</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1605,7 +1608,7 @@
         <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1622,7 +1625,7 @@
         <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1639,7 +1642,7 @@
         <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1656,7 +1659,7 @@
         <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1673,7 +1676,7 @@
         <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1690,7 +1693,7 @@
         <v>156</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1707,7 +1710,7 @@
         <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1724,7 +1727,7 @@
         <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1741,7 +1744,7 @@
         <v>156</v>
       </c>
       <c r="E43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1758,7 +1761,7 @@
         <v>156</v>
       </c>
       <c r="E44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1775,7 +1778,7 @@
         <v>156</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1792,7 +1795,7 @@
         <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1809,7 +1812,7 @@
         <v>156</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1826,7 +1829,7 @@
         <v>156</v>
       </c>
       <c r="E48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1843,7 +1846,7 @@
         <v>157</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1860,7 +1863,7 @@
         <v>156</v>
       </c>
       <c r="E50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1877,7 +1880,7 @@
         <v>156</v>
       </c>
       <c r="E51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1894,7 +1897,7 @@
         <v>156</v>
       </c>
       <c r="E52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1911,7 +1914,7 @@
         <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1928,7 +1931,7 @@
         <v>156</v>
       </c>
       <c r="E54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1945,7 +1948,7 @@
         <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1962,7 +1965,7 @@
         <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1979,7 +1982,7 @@
         <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1996,7 +1999,7 @@
         <v>150</v>
       </c>
       <c r="E58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2013,7 +2016,7 @@
         <v>150</v>
       </c>
       <c r="E59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2030,7 +2033,7 @@
         <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2047,7 +2050,7 @@
         <v>156</v>
       </c>
       <c r="E61" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2064,7 +2067,7 @@
         <v>156</v>
       </c>
       <c r="E62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2081,7 +2084,7 @@
         <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2098,7 +2101,7 @@
         <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2115,7 +2118,7 @@
         <v>156</v>
       </c>
       <c r="E65" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2132,7 +2135,7 @@
         <v>156</v>
       </c>
       <c r="E66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2149,7 +2152,7 @@
         <v>156</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2166,7 +2169,7 @@
         <v>156</v>
       </c>
       <c r="E68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2183,7 +2186,7 @@
         <v>156</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2200,7 +2203,7 @@
         <v>156</v>
       </c>
       <c r="E70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2217,7 +2220,7 @@
         <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2234,7 +2237,7 @@
         <v>159</v>
       </c>
       <c r="E72" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2251,7 +2254,7 @@
         <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2268,7 +2271,7 @@
         <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2285,7 +2288,7 @@
         <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2302,7 +2305,7 @@
         <v>156</v>
       </c>
       <c r="E76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2319,7 +2322,7 @@
         <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2336,7 +2339,7 @@
         <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2353,7 +2356,7 @@
         <v>156</v>
       </c>
       <c r="E79" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2370,7 +2373,7 @@
         <v>156</v>
       </c>
       <c r="E80" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2387,7 +2390,7 @@
         <v>156</v>
       </c>
       <c r="E81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2404,7 +2407,7 @@
         <v>156</v>
       </c>
       <c r="E82" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2421,7 +2424,7 @@
         <v>156</v>
       </c>
       <c r="E83" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2438,7 +2441,7 @@
         <v>156</v>
       </c>
       <c r="E84" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2455,7 +2458,7 @@
         <v>156</v>
       </c>
       <c r="E85" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2472,7 +2475,7 @@
         <v>156</v>
       </c>
       <c r="E86" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2489,7 +2492,7 @@
         <v>156</v>
       </c>
       <c r="E87" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2506,7 +2509,7 @@
         <v>156</v>
       </c>
       <c r="E88" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2523,7 +2526,7 @@
         <v>156</v>
       </c>
       <c r="E89" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2540,7 +2543,7 @@
         <v>156</v>
       </c>
       <c r="E90" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2557,7 +2560,7 @@
         <v>156</v>
       </c>
       <c r="E91" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2574,7 +2577,7 @@
         <v>150</v>
       </c>
       <c r="E92" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2591,7 +2594,7 @@
         <v>153</v>
       </c>
       <c r="E93" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2608,7 +2611,7 @@
         <v>153</v>
       </c>
       <c r="E94" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2625,7 +2628,7 @@
         <v>160</v>
       </c>
       <c r="E95" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2642,7 +2645,7 @@
         <v>161</v>
       </c>
       <c r="E96" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2659,7 +2662,7 @@
         <v>162</v>
       </c>
       <c r="E97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2676,7 +2679,7 @@
         <v>163</v>
       </c>
       <c r="E98" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2693,7 +2696,7 @@
         <v>163</v>
       </c>
       <c r="E99" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2710,7 +2713,7 @@
         <v>162</v>
       </c>
       <c r="E100" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2727,7 +2730,7 @@
         <v>162</v>
       </c>
       <c r="E101" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2744,7 +2747,7 @@
         <v>162</v>
       </c>
       <c r="E102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2761,7 +2764,7 @@
         <v>156</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2778,7 +2781,7 @@
         <v>156</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2795,7 +2798,7 @@
         <v>156</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2812,7 +2815,7 @@
         <v>158</v>
       </c>
       <c r="E106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
